--- a/assets/results/ME_result.xlsx
+++ b/assets/results/ME_result.xlsx
@@ -7,14 +7,29 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Androscoggin County" sheetId="1" r:id="rId1"/>
+    <sheet name="Aroostook County" sheetId="2" r:id="rId2"/>
+    <sheet name="Franklin County" sheetId="3" r:id="rId3"/>
+    <sheet name="Hancock County" sheetId="4" r:id="rId4"/>
+    <sheet name="Knox County" sheetId="5" r:id="rId5"/>
+    <sheet name="Lincoln County" sheetId="6" r:id="rId6"/>
+    <sheet name="Penobscot County" sheetId="7" r:id="rId7"/>
+    <sheet name="Piscataquis County" sheetId="8" r:id="rId8"/>
+    <sheet name="Somerset County" sheetId="9" r:id="rId9"/>
+    <sheet name="Washington County" sheetId="10" r:id="rId10"/>
+    <sheet name="York County" sheetId="11" r:id="rId11"/>
+    <sheet name="Cumberland County" sheetId="12" r:id="rId12"/>
+    <sheet name="Kennebec County" sheetId="13" r:id="rId13"/>
+    <sheet name="Oxford County" sheetId="14" r:id="rId14"/>
+    <sheet name="Sagadahoc County" sheetId="15" r:id="rId15"/>
+    <sheet name="Waldo County" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="86">
   <si>
     <t>question</t>
   </si>
@@ -175,13 +190,103 @@
     <t>Ratio of Native Americans to whites with health insurance</t>
   </si>
   <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>Androscoggin County</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>Aroostook County</t>
+  </si>
+  <si>
+    <t>007</t>
+  </si>
+  <si>
+    <t>Franklin County</t>
+  </si>
+  <si>
+    <t>009</t>
+  </si>
+  <si>
+    <t>Hancock County</t>
+  </si>
+  <si>
+    <t>013</t>
+  </si>
+  <si>
+    <t>Knox County</t>
+  </si>
+  <si>
+    <t>015</t>
+  </si>
+  <si>
+    <t>Lincoln County</t>
+  </si>
+  <si>
+    <t>019</t>
+  </si>
+  <si>
+    <t>Penobscot County</t>
+  </si>
+  <si>
+    <t>021</t>
+  </si>
+  <si>
+    <t>Piscataquis County</t>
+  </si>
+  <si>
+    <t>025</t>
+  </si>
+  <si>
+    <t>Somerset County</t>
+  </si>
+  <si>
+    <t>029</t>
+  </si>
+  <si>
+    <t>Washington County</t>
+  </si>
+  <si>
+    <t>031</t>
+  </si>
+  <si>
+    <t>York County</t>
+  </si>
+  <si>
+    <t>005</t>
+  </si>
+  <si>
+    <t>Cumberland County</t>
+  </si>
+  <si>
+    <t>011</t>
+  </si>
+  <si>
+    <t>Kennebec County</t>
+  </si>
+  <si>
+    <t>017</t>
+  </si>
+  <si>
+    <t>Oxford County</t>
+  </si>
+  <si>
+    <t>023</t>
+  </si>
+  <si>
+    <t>Sagadahoc County</t>
+  </si>
+  <si>
     <t>027</t>
   </si>
   <si>
     <t>Waldo County</t>
-  </si>
-  <si>
-    <t>null</t>
   </si>
 </sst>
 </file>
@@ -583,7 +688,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>39723</v>
+        <v>107958</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -594,7 +699,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>37650</v>
+        <v>97338</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -605,7 +710,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>164</v>
+        <v>2559</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -616,7 +721,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>163</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -627,7 +732,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>158</v>
+        <v>984</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -638,7 +743,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>618</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -649,7 +754,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>20037</v>
+        <v>56723</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -660,7 +765,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>60.1</v>
+        <v>64.90000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -671,7 +776,7 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <v>60.5</v>
+        <v>48.8</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -682,7 +787,7 @@
         <v>13</v>
       </c>
       <c r="C13">
-        <v>61.4</v>
+        <v>69.5</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -693,7 +798,7 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <v>61</v>
+        <v>75.40000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -704,7 +809,7 @@
         <v>15</v>
       </c>
       <c r="C15">
-        <v>86.2</v>
+        <v>68.90000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -715,7 +820,7 @@
         <v>16</v>
       </c>
       <c r="C16">
-        <v>1.006655574043261</v>
+        <v>0.7519260400616332</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -726,7 +831,7 @@
         <v>17</v>
       </c>
       <c r="C17">
-        <v>3.470881863560733</v>
+        <v>3.294298921417565</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -737,7 +842,7 @@
         <v>18</v>
       </c>
       <c r="C18">
-        <v>7343</v>
+        <v>18508</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -759,7 +864,7 @@
         <v>20</v>
       </c>
       <c r="C20">
-        <v>60.05263157894737</v>
+        <v>11.1496062992126</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -770,7 +875,7 @@
         <v>21</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>311.9542857142857</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -781,7 +886,7 @@
         <v>22</v>
       </c>
       <c r="C22">
-        <v>52.27941176470588</v>
+        <v>263.0262529832935</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -792,7 +897,7 @@
         <v>23</v>
       </c>
       <c r="C23">
-        <v>291.5824634655532</v>
+        <v>1431.294789436117</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -803,7 +908,7 @@
         <v>24</v>
       </c>
       <c r="C24">
-        <v>0.007712436303539457</v>
+        <v>0.000447052249231629</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -814,7 +919,7 @@
         <v>25</v>
       </c>
       <c r="C25">
-        <v>0.03732268282605702</v>
+        <v>0.07812238055322716</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -825,7 +930,7 @@
         <v>26</v>
       </c>
       <c r="C26">
-        <v>33005</v>
+        <v>33908</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -836,7 +941,7 @@
         <v>27</v>
       </c>
       <c r="C27">
-        <v>33348</v>
+        <v>35140</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -847,7 +952,7 @@
         <v>28</v>
       </c>
       <c r="C28">
-        <v>-666666666</v>
+        <v>15675</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -869,7 +974,7 @@
         <v>30</v>
       </c>
       <c r="C30">
-        <v>-666666666</v>
+        <v>52686</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -880,7 +985,7 @@
         <v>31</v>
       </c>
       <c r="C31">
-        <v>17231</v>
+        <v>24771</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -891,7 +996,7 @@
         <v>32</v>
       </c>
       <c r="C32">
-        <v>9305</v>
+        <v>17097</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -913,7 +1018,7 @@
         <v>34</v>
       </c>
       <c r="C34">
-        <v>47.2</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -924,7 +1029,7 @@
         <v>35</v>
       </c>
       <c r="C35">
-        <v>2.3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -935,7 +1040,7 @@
         <v>36</v>
       </c>
       <c r="C36">
-        <v>50.9</v>
+        <v>69.5</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -946,7 +1051,7 @@
         <v>37</v>
       </c>
       <c r="C37">
-        <v>25</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -967,8 +1072,8 @@
       <c r="B39" t="s">
         <v>39</v>
       </c>
-      <c r="C39" t="s">
-        <v>55</v>
+      <c r="C39">
+        <v>11.3</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -979,7 +1084,7 @@
         <v>40</v>
       </c>
       <c r="C40">
-        <v>12.4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -990,7 +1095,7 @@
         <v>41</v>
       </c>
       <c r="C41">
-        <v>56.3</v>
+        <v>38.2</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1001,7 +1106,7 @@
         <v>42</v>
       </c>
       <c r="C42">
-        <v>19</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1012,7 +1117,7 @@
         <v>43</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1023,7 +1128,7 @@
         <v>44</v>
       </c>
       <c r="C44">
-        <v>4.9</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1034,7 +1139,7 @@
         <v>45</v>
       </c>
       <c r="C45">
-        <v>1.532258064516129</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1045,7 +1150,7 @@
         <v>46</v>
       </c>
       <c r="C46">
-        <v>88.40000000000001</v>
+        <v>92.09999999999999</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1056,7 +1161,7 @@
         <v>47</v>
       </c>
       <c r="C47">
-        <v>88.40000000000001</v>
+        <v>92.59999999999999</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1067,7 +1172,7 @@
         <v>48</v>
       </c>
       <c r="C48">
-        <v>96.09999999999999</v>
+        <v>82.7</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1078,7 +1183,7 @@
         <v>49</v>
       </c>
       <c r="C49">
-        <v>82.8</v>
+        <v>92.40000000000001</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1089,7 +1194,7 @@
         <v>50</v>
       </c>
       <c r="C50">
-        <v>94.3</v>
+        <v>96.5</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1100,7 +1205,7 @@
         <v>51</v>
       </c>
       <c r="C51">
-        <v>83.09999999999999</v>
+        <v>85.3</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1111,7 +1216,8737 @@
         <v>52</v>
       </c>
       <c r="C52">
+        <v>0.9978401727861772</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>31378</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>28007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>13749</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>52.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>48.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>55.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>34.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>59.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>0.929657794676806</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>2.838403041825095</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>3813</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>219.3913043478261</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>29.46666666666667</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>23.45045045045045</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>557.0916334661355</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>0.04334537371492081</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>0.1108641289247013</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>26919</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>27393</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>-666666666</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>16060</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>-666666666</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>26046</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>5505</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>20.6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>46.2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>36.3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39">
+        <v>18.1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>35.1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>24.4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>2.089285714285714</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <v>88.40000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>79.7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49">
+        <v>79.90000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>83.3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51">
+        <v>87.2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52">
+        <v>0.8977528089887641</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>206074</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>192520</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>2362</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>3689</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>114678</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>66.09999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>77.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>69.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>80.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>73.40000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>1.172465960665658</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>3.375189107413011</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>41625</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>168.8719723183391</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>540.0752613240418</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>427.6771857216762</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>2479.789035916825</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>0.002446635875670952</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>0.06346273873424042</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>37977</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>38349</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>25842</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>42375</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>31538</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>38760</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>49042</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>37.4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>28.4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>23.6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <v>94.2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47">
+        <v>94.40000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>90.90000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49">
+        <v>60.7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>97.7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51">
+        <v>91.7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52">
+        <v>0.6430084745762712</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>294520</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>263199</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>9192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>6665</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>6315</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>170070</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>68.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>77.09999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>73.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>74.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>1.122270742358078</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>3.179039301310043</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>77039</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>272.3184885290149</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>1964.497486622345</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>2203.236248872859</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>4303.67450731087</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>0.003378331602630668</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>0.08815507095880927</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>40125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>41107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>24016</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>40896</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>30709</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>31591</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>102916</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>30.7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>47.7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>49.9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39">
+        <v>8.300000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <v>33.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>2.27536231884058</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <v>94.3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47">
+        <v>94.8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>91.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49">
+        <v>68.90000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>88.59999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51">
+        <v>91.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52">
+        <v>0.7267932489451477</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>122158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>115281</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>62834</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>66.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>60.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>67.90000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>0.8387096774193549</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>3.146774193548387</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>23452</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>53.53913043478261</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>524.0582524271845</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>294.3873015873016</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>1298.680473372781</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>0.002078910120311394</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>0.06754246284501061</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>33796</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>34336</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>32404</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>24464</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>11748</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>22489</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>25904</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>54.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>43.2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <v>28.9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>23.2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <v>16.4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>20.6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>1.949579831932773</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <v>92.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47">
+        <v>92.7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>87.2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49">
+        <v>97.90000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>80.40000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51">
+        <v>87.7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52">
+        <v>1.056094929881338</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>57741</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>54637</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>27729</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>56.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>72.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>94.59999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>51.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>68.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>1.279929577464789</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>3.772887323943662</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>7975</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>2.08695652173913</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>67.94117647058823</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>645.4931506849315</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>0.0002534533012292485</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>0.06488404511468762</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>28957</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>29348</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>-666666666</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>82905</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>21985</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>20250</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>8932</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>18.6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>55.9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <v>48.8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>17.9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>1.3984375</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <v>91.7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47">
+        <v>91.7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>81.7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>93.8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51">
+        <v>83.09999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52">
+        <v>1.057797164667394</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>35720</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>33635</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>19673</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>65.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>87.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>69.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>35.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>89.90000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>1.338931297709924</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>2.972519083969465</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>7352</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>72.59016393442623</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>13.44905660377358</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>891.5515695067265</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>0.009968157275370345</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>0.08583690987124463</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>38673</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>38905</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>57500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>30341</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>13421</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>37260</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>10048</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>66.3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>30.7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>1.150943396226415</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <v>92.7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47">
+        <v>93.09999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>81.90000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51">
+        <v>78.40000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52">
+        <v>1.074113856068743</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>39723</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>37650</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>20037</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>60.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>60.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>61.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>86.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>1.006655574043261</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>3.470881863560733</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>7343</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>60.05263157894737</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>52.27941176470588</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>291.5824634655532</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>0.007712436303539457</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>0.03732268282605702</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>33005</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>33348</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>-666666666</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>-666666666</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>-666666666</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>17231</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>9305</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>47.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>50.9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <v>56.3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>4.9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>1.532258064516129</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <v>88.40000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47">
+        <v>88.40000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>96.09999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49">
+        <v>82.8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>94.3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51">
+        <v>83.09999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52">
         <v>0.9366515837104071</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>67431</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>63194</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>30695</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>53.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>54.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>72.40000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>61.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>46.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>1.012987012987013</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>3.358070500927644</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>8890</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>118.3207343412527</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>201.2523020257827</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>77.97333333333333</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>446.2354892205639</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>0.009887169943003373</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>0.06257996975689194</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>31133</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>31497</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>-666666666</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>18125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>-666666666</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>32639</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>9897</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>35.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>60.3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <v>34.7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>39.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>25.8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>2.969924812030075</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <v>91.59999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47">
+        <v>91.7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>88.7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>92.09999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51">
+        <v>87.09999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52">
+        <v>0.9378407851690295</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>29933</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>28548</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>15257</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>85.90000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>80.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>0.1752921535893155</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>4.133555926544241</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>4289</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>10.88607594936709</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>352.327868852459</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>0.06588072122052704</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>28278</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>28771</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>-666666666</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>-666666666</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>-666666666</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>21119</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>5727</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>27.3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <v>89.7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47">
+        <v>90.09999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51">
+        <v>71.59999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52">
+        <v>1.109877913429523</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>54832</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>51809</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>29155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>26.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>92.09999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>76.09999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>61.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>0.4256</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>3.6736</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>10275</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>8.075949367088608</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>136.573476702509</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>218.8181818181818</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>437.2178387650085</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>0.0006056935190793458</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>0.06026650514839491</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>33059</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>32879</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>41331</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>17875</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>52067</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>28111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>14786</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>45.1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>43.7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>52.3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>44.8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>9.800000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>9.300000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>0.9285714285714285</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <v>89.8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>94.09999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49">
+        <v>69.59999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>72.7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51">
+        <v>97.3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52">
+        <v>0.7733333333333333</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>39809</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>37807</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>20436</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>61.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>48.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>45.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>62.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>0.7928221859706363</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>2.579119086460033</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>6541</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>3.188405797101449</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>90.34343434343435</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>249.672</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>0.0003064664419246092</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>0.04474410052099295</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>30696</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>30873</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>25234</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>18795</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>43878</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>29327</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>10334</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>19.4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>43.8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>9.199999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <v>92.3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47">
+        <v>92.3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>98.90000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49">
+        <v>88.09999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>99.40000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51">
+        <v>96.40000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52">
+        <v>0.9544962080173347</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>34415</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>32583</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>16979</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>58.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>23.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>97.90000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>56.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>0.4113597246127366</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>3.710843373493976</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>6114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>61.64179104477612</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>187.1042944785276</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>0.00515378221113882</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>0.02992518703241895</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>31312</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>31849</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>-666666666</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>-666666666</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>21417</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>21629</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>9559</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>19.4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>10.2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>34.6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <v>16.3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>3.392156862745098</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <v>90.09999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47">
+        <v>90.40000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>85.40000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49">
+        <v>97.59999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>78.3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51">
+        <v>69.2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52">
+        <v>1.079646017699115</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>151696</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>141678</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>2199</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>77725</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>60.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>66.40000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>70.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>59.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>1.092105263157895</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>2.986842105263158</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>26116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>321.3461803165864</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>296.0622140896615</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>222.7611940298507</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>1297.312142403051</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>0.008840211226285939</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>0.05405828280852729</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>31029</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>31389</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>20545</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>18417</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>26959</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>20565</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>30954</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>29.4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>26.6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>59.2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>22.1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>41.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <v>29.6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>3.32</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <v>91.7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47">
+        <v>91.7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>93.90000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49">
+        <v>89.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>92.90000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51">
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52">
+        <v>0.9760087241003271</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>16864</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>15887</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>7013</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>48.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>34.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>91.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>29.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>40.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>0.7078189300411523</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>3.318930041152263</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>167.0157068062827</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>0.05058939096267191</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>30078</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>30204</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>10962</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>-666666666</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>29261</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>-666666666</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>2430</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>19.7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>40.3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <v>88.2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47">
+        <v>88.3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>99.09999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>88.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51">
+        <v>78.90000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52">
+        <v>0.8493771234428086</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>50573</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>48340</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>23467</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>56.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>44.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>35.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>52.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>0.7985739750445632</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>1.786096256684492</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>5582</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>32.66115702479339</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>382.2987341772152</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>0.0008862105636299185</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>0.05140021269053527</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>27956</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>28750</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>21165</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>10893</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>5819</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>25500</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>6739</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>27.3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>55.2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <v>28.6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>16.9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>2.860103626943005</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <v>90.7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47">
+        <v>90.8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49">
+        <v>70.59999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52">
+        <v>0.777533039647577</v>
       </c>
     </row>
   </sheetData>
